--- a/开发者日志/像素画.xlsx
+++ b/开发者日志/像素画.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMaker\RoguelikeThreeKingdoms\ThreeKingdomsFierceWarfare\开发者日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D7A75D-6710-4521-A012-8373775EC8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAE5D8C-E886-4358-8AD7-C240D7C2523B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="6810" windowWidth="17340" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>像素大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,42 @@
   </si>
   <si>
     <t>48px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏人物占屏幕10%-20%左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕长宽比16:9最常见：FHD:1920x1080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHD:2160  4k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:3:6的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD:1280x720（switch）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定画布大小可以用1080的公约数：540、270也就是960x540或480x270、320x180</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,6 +162,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>686359</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>51547</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F565120-09FC-460D-F0D0-A5AE5359ED37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="686359" y="548036"/>
+          <a:ext cx="2796989" cy="1218368"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>439831</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>156284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>452157</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29212EEB-1176-4394-AD2D-9F698FCFD460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2498912" y="1795144"/>
+          <a:ext cx="2071407" cy="1103176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -402,12 +543,12 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -418,11 +559,53 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>